--- a/Test.xlsx
+++ b/Test.xlsx
@@ -19,14 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="2">
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:T27"/>
+  <dimension ref="B3:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -479,7 +472,7 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -490,7 +483,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C4" s="7"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -501,7 +494,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C5" s="7"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -512,7 +505,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C6" s="7"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -523,36 +516,18 @@
       <c r="J6" s="2"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="7"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -563,7 +538,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -573,49 +548,19 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="8"/>
-      <c r="M9" s="1">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="7"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="8"/>
-      <c r="M10" s="1">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C11" s="9"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -625,279 +570,56 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="10"/>
-      <c r="M11" s="1">
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
         <v>1</v>
       </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="J17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G20" s="1">
-        <v>64</v>
-      </c>
-      <c r="H20" s="1">
-        <v>32</v>
-      </c>
-      <c r="I20" s="1">
-        <v>16</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1">
         <v>8</v>
       </c>
-      <c r="K20" s="1">
-        <v>4</v>
-      </c>
-      <c r="L20" s="1">
-        <v>2</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>1</v>
-      </c>
-      <c r="M22" s="1">
-        <v>1</v>
-      </c>
-      <c r="O22" s="1">
-        <v>1</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>0</v>
-      </c>
-      <c r="R22" s="1">
-        <v>0</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="I23" s="1">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>1</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="O23" s="1">
-        <v>1</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0</v>
-      </c>
-      <c r="R23" s="1">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="I24" s="1">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>1</v>
-      </c>
-      <c r="O24" s="1">
-        <v>1</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>0</v>
-      </c>
-      <c r="R24" s="1">
-        <v>0</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1</v>
-      </c>
-      <c r="L25" s="1">
-        <v>1</v>
-      </c>
-      <c r="M25" s="1">
-        <v>1</v>
-      </c>
-      <c r="O25" s="1">
-        <v>0</v>
-      </c>
-      <c r="P25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>0</v>
-      </c>
-      <c r="R25" s="1">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0</v>
+      <c r="E26" s="1">
+        <v>11</v>
+      </c>
+      <c r="F26" s="1">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -19,7 +19,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>max = n-1 - index</t>
+  </si>
+  <si>
+    <t>n is Odd</t>
+  </si>
+  <si>
+    <t>half = n/2</t>
+  </si>
+  <si>
+    <t>max = index</t>
+  </si>
+  <si>
+    <t>n is even</t>
+  </si>
+  <si>
+    <t>max = n - 1 - index</t>
+  </si>
+  <si>
+    <t>half = n/2 - 1</t>
+  </si>
+  <si>
+    <t>max = half</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -146,40 +177,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,165 +495,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K26"/>
+  <dimension ref="A3:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="26.42578125" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="7"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="8"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="7"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="8"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="7"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="8"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="7"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="8"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="7"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="8"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="7"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="8"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="8"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C11" s="9"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="1">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="1">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4">
+        <v>3</v>
+      </c>
+      <c r="H22" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="1">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
         <v>1</v>
       </c>
-      <c r="C24" s="1">
+      <c r="F27" s="12">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4">
         <v>3</v>
       </c>
-      <c r="D24" s="1">
+      <c r="H27" s="4">
+        <v>4</v>
+      </c>
+      <c r="I27" s="4">
         <v>5</v>
       </c>
-      <c r="E24" s="1">
-        <v>7</v>
-      </c>
-      <c r="F24" s="1">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1">
-        <v>5</v>
-      </c>
-      <c r="D26" s="1">
-        <v>8</v>
-      </c>
-      <c r="E26" s="1">
-        <v>11</v>
-      </c>
-      <c r="F26" s="1">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
